--- a/Data/Assumption/Market_Transmission/Market1.xlsx
+++ b/Data/Assumption/Market_Transmission/Market1.xlsx
@@ -37,30 +37,18 @@
     <t>PowerFlowID</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A1_A2</t>
   </si>
   <si>
     <t>A2_A1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>A2_B1</t>
   </si>
   <si>
     <t>B1_A2</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>B1_B2</t>
   </si>
   <si>
@@ -71,6 +59,18 @@
   </si>
   <si>
     <t>B2_A2</t>
+  </si>
+  <si>
+    <t>ZoneA1</t>
+  </si>
+  <si>
+    <t>ZoneA2</t>
+  </si>
+  <si>
+    <t>ZoneB1</t>
+  </si>
+  <si>
+    <t>ZoneB2</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,13 +505,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>500</v>
@@ -522,13 +522,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3">
         <v>500</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>300</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>300</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>400</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>400</v>

--- a/Data/Assumption/Market_Transmission/Market1.xlsx
+++ b/Data/Assumption/Market_Transmission/Market1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>From</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>ZoneB2</t>
+  </si>
+  <si>
+    <t>CommitTime</t>
+  </si>
+  <si>
+    <t>LifeTime</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>USD/KW</t>
+  </si>
+  <si>
+    <t>USD/KW.Year</t>
+  </si>
+  <si>
+    <t>DiscountRate</t>
   </si>
 </sst>
 </file>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -473,9 +494,12 @@
     <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,8 +515,23 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -502,8 +541,19 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -519,8 +569,23 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -536,8 +601,23 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -553,8 +633,23 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -570,8 +665,23 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -587,8 +697,23 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -604,8 +729,23 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -621,8 +761,23 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -637,6 +792,21 @@
       </c>
       <c r="E10" s="3">
         <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
